--- a/data/formularios/FormularioDAPDeluge.xlsx
+++ b/data/formularios/FormularioDAPDeluge.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Deluge\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852A3E5-D201-4C51-9922-0178B68D5BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="2775" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="0" windowWidth="16480" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="41">
   <si>
     <t>Lat_v1</t>
   </si>
@@ -146,11 +145,14 @@
   <si>
     <t xml:space="preserve">Bwa Dom </t>
   </si>
+  <si>
+    <t>Deluge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="##.0"/>
@@ -258,42 +260,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -301,23 +303,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -332,7 +334,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -381,24 +383,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -412,11 +396,29 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,76 +753,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="26">
         <v>43746</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="E2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -832,18 +836,18 @@
       <c r="Q3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -877,7 +881,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -895,7 +899,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,7 +929,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -941,30 +945,30 @@
       <c r="R8"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -976,16 +980,16 @@
       <c r="R9"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -999,7 +1003,7 @@
       <c r="R10"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
@@ -1016,9 +1020,9 @@
         <v>0</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1030,7 +1034,7 @@
       <c r="R11"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
@@ -1047,9 +1051,9 @@
         <v>0</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1061,7 +1065,7 @@
       <c r="R12"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
@@ -1078,9 +1082,9 @@
         <v>0</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1092,7 +1096,7 @@
       <c r="R13"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
@@ -1109,9 +1113,9 @@
         <v>3</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1123,7 +1127,7 @@
       <c r="R14"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
@@ -1140,9 +1144,9 @@
         <v>0</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1154,7 +1158,7 @@
       <c r="R15"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
@@ -1169,9 +1173,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1183,7 +1187,7 @@
       <c r="R16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
@@ -1198,9 +1202,9 @@
         <v>0</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1212,7 +1216,7 @@
       <c r="R17"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
@@ -1229,9 +1233,9 @@
         <v>0</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -1243,7 +1247,7 @@
       <c r="R18"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="21" t="s">
         <v>22</v>
       </c>
@@ -1260,9 +1264,9 @@
         <v>0</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -1274,7 +1278,7 @@
       <c r="R19"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="21" t="s">
         <v>22</v>
       </c>
@@ -1289,9 +1293,9 @@
         <v>0</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -1303,7 +1307,7 @@
       <c r="R20"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="21" t="s">
         <v>22</v>
       </c>
@@ -1318,9 +1322,9 @@
         <v>3</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -1332,7 +1336,7 @@
       <c r="R21"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="21" t="s">
         <v>22</v>
       </c>
@@ -1349,9 +1353,9 @@
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -1363,7 +1367,7 @@
       <c r="R22"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
@@ -1380,9 +1384,9 @@
         <v>0</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -1394,7 +1398,7 @@
       <c r="R23"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -1411,9 +1415,9 @@
         <v>0</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -1425,7 +1429,7 @@
       <c r="R24"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="21" t="s">
         <v>22</v>
       </c>
@@ -1440,9 +1444,9 @@
         <v>2</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -1454,7 +1458,7 @@
       <c r="R25"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1469,9 +1473,9 @@
         <v>0</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -1483,7 +1487,7 @@
       <c r="R26"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="21" t="s">
         <v>22</v>
       </c>
@@ -1500,9 +1504,9 @@
         <v>0</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -1514,7 +1518,7 @@
       <c r="R27"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="21" t="s">
         <v>22</v>
       </c>
@@ -1529,9 +1533,9 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -1543,7 +1547,7 @@
       <c r="R28"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="21" t="s">
         <v>22</v>
       </c>
@@ -1558,9 +1562,9 @@
         <v>0</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -1572,7 +1576,7 @@
       <c r="R29"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="21" t="s">
         <v>22</v>
       </c>
@@ -1587,9 +1591,9 @@
         <v>0</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -1601,7 +1605,7 @@
       <c r="R30"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="21" t="s">
         <v>22</v>
       </c>
@@ -1618,9 +1622,9 @@
         <v>2</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -1632,7 +1636,7 @@
       <c r="R31"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="21" t="s">
         <v>22</v>
       </c>
@@ -1649,9 +1653,9 @@
         <v>0</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -1663,7 +1667,7 @@
       <c r="R32"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
@@ -1680,9 +1684,9 @@
         <v>3</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -1694,7 +1698,7 @@
       <c r="R33"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="21" t="s">
         <v>22</v>
       </c>
@@ -1711,9 +1715,9 @@
         <v>0</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -1725,7 +1729,7 @@
       <c r="R34"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="21" t="s">
         <v>22</v>
       </c>
@@ -1742,9 +1746,9 @@
         <v>2</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -1756,7 +1760,7 @@
       <c r="R35"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="21" t="s">
         <v>22</v>
       </c>
@@ -1771,9 +1775,9 @@
         <v>0</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -1785,7 +1789,7 @@
       <c r="R36"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="21" t="s">
         <v>22</v>
       </c>
@@ -1802,9 +1806,9 @@
         <v>0</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -1816,7 +1820,7 @@
       <c r="R37"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="21" t="s">
         <v>22</v>
       </c>
@@ -1831,9 +1835,9 @@
         <v>0</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -1845,7 +1849,7 @@
       <c r="R38"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="21" t="s">
         <v>22</v>
       </c>
@@ -1862,9 +1866,9 @@
         <v>0</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -1876,7 +1880,7 @@
       <c r="R39"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="21" t="s">
         <v>22</v>
       </c>
@@ -1893,20 +1897,20 @@
         <v>0</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="21" t="s">
         <v>22</v>
       </c>
@@ -1923,21 +1927,21 @@
         <v>2</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
       <c r="R41"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="21" t="s">
         <v>22</v>
       </c>
@@ -1952,21 +1956,21 @@
         <v>2</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
       <c r="R42"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="21" t="s">
         <v>22</v>
       </c>
@@ -1983,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
       <c r="R43"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="21" t="s">
         <v>22</v>
       </c>
@@ -2014,9 +2018,9 @@
         <v>0</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -2028,7 +2032,7 @@
       <c r="R44"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="21" t="s">
         <v>22</v>
       </c>
@@ -2045,9 +2049,9 @@
         <v>0</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -2059,7 +2063,7 @@
       <c r="R45"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="21" t="s">
         <v>22</v>
       </c>
@@ -2074,9 +2078,9 @@
         <v>0</v>
       </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -2088,7 +2092,7 @@
       <c r="R46"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="21" t="s">
         <v>22</v>
       </c>
@@ -2103,9 +2107,9 @@
         <v>0</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -2117,7 +2121,7 @@
       <c r="R47"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="21" t="s">
         <v>22</v>
       </c>
@@ -2132,9 +2136,9 @@
         <v>0</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -2146,7 +2150,7 @@
       <c r="R48"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="21" t="s">
         <v>22</v>
       </c>
@@ -2161,9 +2165,9 @@
         <v>0</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -2173,7 +2177,7 @@
       <c r="P49" s="15"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="21" t="s">
         <v>22</v>
       </c>
@@ -2188,9 +2192,9 @@
         <v>0</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -2200,7 +2204,7 @@
       <c r="P50" s="15"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="21" t="s">
         <v>22</v>
       </c>
@@ -2215,9 +2219,9 @@
         <v>0</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
@@ -2227,7 +2231,7 @@
       <c r="P51" s="15"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="21" t="s">
         <v>22</v>
       </c>
@@ -2242,9 +2246,9 @@
         <v>0</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
@@ -2254,7 +2258,7 @@
       <c r="P52" s="15"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="21" t="s">
         <v>22</v>
       </c>
@@ -2271,9 +2275,9 @@
         <v>0</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
@@ -2283,7 +2287,7 @@
       <c r="P53" s="15"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="21" t="s">
         <v>22</v>
       </c>
@@ -2298,9 +2302,9 @@
         <v>2</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -2310,7 +2314,7 @@
       <c r="P54" s="15"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="21" t="s">
         <v>22</v>
       </c>
@@ -2325,9 +2329,9 @@
         <v>2</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -2337,7 +2341,7 @@
       <c r="P55" s="15"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="21" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2368,7 @@
       <c r="P56" s="15"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="21" t="s">
         <v>22</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="P57" s="15"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="21" t="s">
         <v>22</v>
       </c>
@@ -2420,7 +2424,7 @@
       <c r="P58" s="15"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="21" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +2453,7 @@
       <c r="P59" s="15"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="21" t="s">
         <v>22</v>
       </c>
@@ -2478,7 +2482,7 @@
       <c r="P60" s="15"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="21" t="s">
         <v>22</v>
       </c>
@@ -2505,7 +2509,7 @@
       <c r="P61" s="15"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="21" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2536,7 @@
       <c r="P62" s="15"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="21" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="P63" s="15"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="21" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +2590,7 @@
       <c r="P64" s="15"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="21" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2617,7 @@
       <c r="P65" s="15"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="21" t="s">
         <v>22</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="P66" s="15"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="21" t="s">
         <v>22</v>
       </c>
@@ -2660,7 +2664,7 @@
       </c>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="21" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2682,7 @@
       </c>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="21" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2698,7 @@
       </c>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="21" t="s">
         <v>22</v>
       </c>
@@ -2710,7 +2714,7 @@
       </c>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="21" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2730,7 @@
       </c>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="21" t="s">
         <v>22</v>
       </c>
@@ -2742,7 +2746,7 @@
       </c>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="21" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="21" t="s">
         <v>22</v>
       </c>
@@ -2777,7 +2781,7 @@
       </c>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="21" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2799,7 @@
       </c>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="21" t="s">
         <v>22</v>
       </c>
@@ -2811,7 +2815,7 @@
       </c>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="21" t="s">
         <v>22</v>
       </c>
@@ -2829,7 +2833,7 @@
       </c>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="21" t="s">
         <v>22</v>
       </c>
@@ -2845,7 +2849,7 @@
       </c>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="21" t="s">
         <v>22</v>
       </c>
@@ -2861,7 +2865,7 @@
       </c>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="21" t="s">
         <v>22</v>
       </c>
@@ -2879,7 +2883,7 @@
       </c>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="21" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2899,7 @@
       </c>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="21" t="s">
         <v>22</v>
       </c>
@@ -2913,7 +2917,7 @@
       </c>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="21" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2935,7 @@
       </c>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="21" t="s">
         <v>22</v>
       </c>
@@ -2947,7 +2951,7 @@
       </c>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="21" t="s">
         <v>22</v>
       </c>
@@ -2965,7 +2969,7 @@
       </c>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="21" t="s">
         <v>22</v>
       </c>
@@ -2981,7 +2985,7 @@
       </c>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="21" t="s">
         <v>22</v>
       </c>
@@ -2999,7 +3003,7 @@
       </c>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="21" t="s">
         <v>22</v>
       </c>
@@ -3017,7 +3021,7 @@
       </c>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="21" t="s">
         <v>22</v>
       </c>
@@ -3033,7 +3037,7 @@
       </c>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="21" t="s">
         <v>22</v>
       </c>
@@ -3049,7 +3053,7 @@
       </c>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="21" t="s">
         <v>22</v>
       </c>
@@ -3065,7 +3069,7 @@
       </c>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="21" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3085,7 @@
       </c>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="21" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3101,7 @@
       </c>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="21" t="s">
         <v>22</v>
       </c>
@@ -3113,7 +3117,7 @@
       </c>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="21" t="s">
         <v>22</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="21" t="s">
         <v>22</v>
       </c>
@@ -3146,7 +3150,7 @@
       </c>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="21" t="s">
         <v>22</v>
       </c>
@@ -3164,7 +3168,7 @@
       </c>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="21" t="s">
         <v>22</v>
       </c>
@@ -3180,7 +3184,7 @@
       </c>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="21" t="s">
         <v>22</v>
       </c>
@@ -3198,7 +3202,7 @@
       </c>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="21" t="s">
         <v>22</v>
       </c>
@@ -3216,7 +3220,7 @@
       </c>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="21" t="s">
         <v>22</v>
       </c>
@@ -3232,7 +3236,7 @@
       </c>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="21" t="s">
         <v>22</v>
       </c>
@@ -3250,7 +3254,7 @@
       </c>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="21" t="s">
         <v>22</v>
       </c>
@@ -3268,7 +3272,7 @@
       </c>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="21" t="s">
         <v>22</v>
       </c>
@@ -3286,7 +3290,7 @@
       </c>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="21" t="s">
         <v>22</v>
       </c>
@@ -3302,7 +3306,7 @@
       </c>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="21" t="s">
         <v>22</v>
       </c>
@@ -3318,7 +3322,7 @@
       </c>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="21" t="s">
         <v>22</v>
       </c>
@@ -3334,7 +3338,7 @@
       </c>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="21" t="s">
         <v>22</v>
       </c>
@@ -3350,7 +3354,7 @@
       </c>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="21" t="s">
         <v>22</v>
       </c>
@@ -3366,7 +3370,7 @@
       </c>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="21" t="s">
         <v>22</v>
       </c>
@@ -3382,7 +3386,7 @@
       </c>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="21" t="s">
         <v>22</v>
       </c>
@@ -3398,7 +3402,7 @@
       </c>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="21" t="s">
         <v>22</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="21" t="s">
         <v>22</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="21" t="s">
         <v>22</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="21" t="s">
         <v>22</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="21" t="s">
         <v>22</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="21" t="s">
         <v>22</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="21" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="21" t="s">
         <v>22</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="21" t="s">
         <v>22</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="21" t="s">
         <v>22</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="21" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="21" t="s">
         <v>22</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="21" t="s">
         <v>22</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="21" t="s">
         <v>22</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="21" t="s">
         <v>22</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="21" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="21" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="21" t="s">
         <v>22</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="21" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="21" t="s">
         <v>22</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="21" t="s">
         <v>22</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="21" t="s">
         <v>22</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="21" t="s">
         <v>22</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="21" t="s">
         <v>22</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="21" t="s">
         <v>22</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="21" t="s">
         <v>22</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="21" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="21" t="s">
         <v>22</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="21" t="s">
         <v>22</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="21" t="s">
         <v>22</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="21" t="s">
         <v>22</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="21" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="21" t="s">
         <v>22</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="21" t="s">
         <v>22</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="21" t="s">
         <v>22</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="21" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="21" t="s">
         <v>22</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="21" t="s">
         <v>22</v>
       </c>
@@ -3988,6 +3992,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="O42:Q42"/>
     <mergeCell ref="O43:Q43"/>
     <mergeCell ref="E2:I2"/>
@@ -4004,78 +4054,46 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>